--- a/pincode_hyderabad.xlsx
+++ b/pincode_hyderabad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,11 +466,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>500063</t>
+          <t>500052</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -484,11 +484,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>500029</t>
+          <t>500093</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -502,11 +502,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>500027</t>
+          <t>500008</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -516,15 +516,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>500095</t>
+          <t>500014</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -534,15 +534,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>500020</t>
+          <t>500100</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -552,15 +552,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>500044</t>
+          <t>500054</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -570,15 +570,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>500013</t>
+          <t>500055</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -588,15 +588,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>500004</t>
+          <t>500067</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -606,15 +606,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>500012</t>
+          <t>500029</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -624,15 +624,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>500036</t>
+          <t>500026</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -642,15 +642,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>500057</t>
+          <t>500025</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -660,15 +660,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>500059</t>
+          <t>500020</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -678,15 +678,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>500001</t>
+          <t>500061</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -696,15 +696,15 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>500063</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>2</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>500037</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>500072</t>
+          <t>500044</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -732,15 +732,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>500090</t>
+          <t>500080</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -750,15 +750,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>500054</t>
+          <t>500003</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -768,15 +768,15 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>500055</t>
+          <t>500049</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -786,15 +786,15 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>500085</t>
+          <t>500050</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -804,15 +804,15 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>500015</t>
+          <t>500084</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
@@ -822,15 +822,15 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>500011</t>
+          <t>500085</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -840,15 +840,15 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>500042</t>
+          <t>500019</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -858,15 +858,15 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>500009</t>
+          <t>500072</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -876,15 +876,15 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>500067</t>
+          <t>500090</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -898,11 +898,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>500093</t>
+          <t>500046</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -930,15 +930,15 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>500008</t>
+          <t>500053</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>500089</t>
+          <t>500057</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>116</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -970,11 +970,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>500080</t>
+          <t>500064</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -988,11 +988,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>500047</t>
+          <t>500048</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -1006,11 +1006,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>500061</t>
+          <t>500006</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -1020,15 +1020,15 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>500025</t>
+          <t>500081</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -1038,15 +1038,15 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>500026</t>
+          <t>500089</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>500003</t>
+          <t>500096</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1074,15 +1074,15 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>500007</t>
+          <t>500033</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -1092,15 +1092,15 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>500017</t>
+          <t>500032</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38">
@@ -1110,15 +1110,15 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>500032</t>
+          <t>500007</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>194</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -1128,15 +1128,15 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>500046</t>
+          <t>500047</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -1146,15 +1146,15 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>500084</t>
+          <t>500062</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>162</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>500050</t>
+          <t>500017</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -1182,15 +1182,15 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>500081</t>
+          <t>500076</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>161</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -1200,15 +1200,15 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>500019</t>
+          <t>500073</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1218,15 +1218,15 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>500049</t>
+          <t>500082</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1236,15 +1236,15 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>500014</t>
+          <t>500042</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1254,15 +1254,15 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>500010</t>
+          <t>500016</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -1272,15 +1272,15 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>500087</t>
+          <t>500038</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -1290,15 +1290,15 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>500100</t>
+          <t>500018</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>500073</t>
+          <t>500034</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
@@ -1330,11 +1330,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>500082</t>
+          <t>500037</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>500105</t>
+          <t>500045</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
@@ -1366,11 +1366,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>500038</t>
+          <t>500011</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
@@ -1380,15 +1380,15 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>500045</t>
+          <t>500087</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -1398,15 +1398,15 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>500034</t>
+          <t>500094</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -1416,15 +1416,15 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>500033</t>
+          <t>500010</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
@@ -1434,15 +1434,15 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>500018</t>
+          <t>500009</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -1452,15 +1452,15 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>500016</t>
+          <t>500015</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -1470,15 +1470,15 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>500096</t>
+          <t>500056</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
@@ -1488,15 +1488,15 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>500053</t>
+          <t>500013</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
@@ -1506,15 +1506,15 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>500052</t>
+          <t>500059</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>500048</t>
+          <t>500027</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -1542,15 +1542,15 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>500006</t>
+          <t>500004</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -1578,15 +1578,15 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>500064</t>
+          <t>500001</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
@@ -1600,11 +1600,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>500062</t>
+          <t>500036</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
@@ -1618,11 +1618,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>500056</t>
+          <t>500012</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -1636,29 +1636,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>500076</t>
+          <t>500095</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Hyderabad</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>10</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>500094</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
